--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col9a2-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col9a2-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Mag</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7744936666666667</v>
+        <v>0.08522833333333334</v>
       </c>
       <c r="H2">
-        <v>2.323481</v>
+        <v>0.255685</v>
       </c>
       <c r="I2">
-        <v>0.9892798401130176</v>
+        <v>0.09431126239175884</v>
       </c>
       <c r="J2">
-        <v>0.9892798401130177</v>
+        <v>0.09431126239175883</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +564,22 @@
         <v>0.183918</v>
       </c>
       <c r="O2">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P2">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q2">
-        <v>0.04748110872866667</v>
+        <v>0.005225008203333333</v>
       </c>
       <c r="R2">
-        <v>0.427329978558</v>
+        <v>0.04702507383</v>
       </c>
       <c r="S2">
-        <v>0.1283670075983962</v>
+        <v>0.005231135025008092</v>
       </c>
       <c r="T2">
-        <v>0.1283670075983962</v>
+        <v>0.00523113502500809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7744936666666667</v>
+        <v>0.08522833333333334</v>
       </c>
       <c r="H3">
-        <v>2.323481</v>
+        <v>0.255685</v>
       </c>
       <c r="I3">
-        <v>0.9892798401130176</v>
+        <v>0.09431126239175884</v>
       </c>
       <c r="J3">
-        <v>0.9892798401130177</v>
+        <v>0.09431126239175883</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N3">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O3">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P3">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q3">
-        <v>0.2197899433595556</v>
+        <v>0.04600543045944445</v>
       </c>
       <c r="R3">
-        <v>1.978109490236</v>
+        <v>0.414048874135</v>
       </c>
       <c r="S3">
-        <v>0.594210583634773</v>
+        <v>0.0460593762251785</v>
       </c>
       <c r="T3">
-        <v>0.5942105836347732</v>
+        <v>0.04605937622517848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7744936666666667</v>
+        <v>0.08522833333333334</v>
       </c>
       <c r="H4">
-        <v>2.323481</v>
+        <v>0.255685</v>
       </c>
       <c r="I4">
-        <v>0.9892798401130176</v>
+        <v>0.09431126239175884</v>
       </c>
       <c r="J4">
-        <v>0.9892798401130177</v>
+        <v>0.09431126239175883</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N4">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O4">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P4">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q4">
-        <v>0.02051169026800001</v>
+        <v>0.0004320224216666666</v>
       </c>
       <c r="R4">
-        <v>0.184605212412</v>
+        <v>0.003888201795</v>
       </c>
       <c r="S4">
-        <v>0.05545414525879889</v>
+        <v>0.0004325290092611818</v>
       </c>
       <c r="T4">
-        <v>0.0554541452587989</v>
+        <v>0.0004325290092611817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.08522833333333334</v>
+      </c>
+      <c r="H5">
+        <v>0.255685</v>
+      </c>
+      <c r="I5">
+        <v>0.09431126239175884</v>
+      </c>
+      <c r="J5">
+        <v>0.09431126239175883</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.7744936666666667</v>
-      </c>
-      <c r="H5">
-        <v>2.323481</v>
-      </c>
-      <c r="I5">
-        <v>0.9892798401130176</v>
-      </c>
-      <c r="J5">
-        <v>0.9892798401130177</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N5">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O5">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P5">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q5">
-        <v>0.07813763337177779</v>
+        <v>0.04253834185944445</v>
       </c>
       <c r="R5">
-        <v>0.703238700346</v>
+        <v>0.382845076735</v>
       </c>
       <c r="S5">
-        <v>0.2112481036210495</v>
+        <v>0.04258822213231109</v>
       </c>
       <c r="T5">
-        <v>0.2112481036210495</v>
+        <v>0.04258822213231107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +773,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.008392666666666666</v>
+        <v>0.7744936666666667</v>
       </c>
       <c r="H6">
-        <v>0.025178</v>
+        <v>2.323481</v>
       </c>
       <c r="I6">
-        <v>0.01072015988698231</v>
+        <v>0.8570327796048507</v>
       </c>
       <c r="J6">
-        <v>0.01072015988698232</v>
+        <v>0.8570327796048506</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +812,22 @@
         <v>0.183918</v>
       </c>
       <c r="O6">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P6">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q6">
-        <v>0.0005145208226666666</v>
+        <v>0.04748110872866667</v>
       </c>
       <c r="R6">
-        <v>0.004630687404</v>
+        <v>0.427329978558</v>
       </c>
       <c r="S6">
-        <v>0.001391026876188107</v>
+        <v>0.0475367848682591</v>
       </c>
       <c r="T6">
-        <v>0.001391026876188107</v>
+        <v>0.04753678486825908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.008392666666666666</v>
+        <v>0.7744936666666667</v>
       </c>
       <c r="H7">
-        <v>0.025178</v>
+        <v>2.323481</v>
       </c>
       <c r="I7">
-        <v>0.01072015988698231</v>
+        <v>0.8570327796048507</v>
       </c>
       <c r="J7">
-        <v>0.01072015988698232</v>
+        <v>0.8570327796048506</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N7">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O7">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P7">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q7">
-        <v>0.002381715707555556</v>
+        <v>0.4180641944945556</v>
       </c>
       <c r="R7">
-        <v>0.021435441368</v>
+        <v>3.762577750451</v>
       </c>
       <c r="S7">
-        <v>0.006439060218162452</v>
+        <v>0.4185544147331833</v>
       </c>
       <c r="T7">
-        <v>0.006439060218162454</v>
+        <v>0.4185544147331832</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.7744936666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.323481</v>
+      </c>
+      <c r="I8">
+        <v>0.8570327796048507</v>
+      </c>
+      <c r="J8">
+        <v>0.8570327796048506</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G8">
-        <v>0.008392666666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.025178</v>
-      </c>
-      <c r="I8">
-        <v>0.01072015988698231</v>
-      </c>
-      <c r="J8">
-        <v>0.01072015988698232</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M8">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N8">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O8">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P8">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q8">
-        <v>0.000222271384</v>
+        <v>0.003925908396333334</v>
       </c>
       <c r="R8">
-        <v>0.002000442456</v>
+        <v>0.035333175567</v>
       </c>
       <c r="S8">
-        <v>0.0006009192540528793</v>
+        <v>0.003930511899279113</v>
       </c>
       <c r="T8">
-        <v>0.0006009192540528795</v>
+        <v>0.003930511899279112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7744936666666667</v>
+      </c>
+      <c r="H9">
+        <v>2.323481</v>
+      </c>
+      <c r="I9">
+        <v>0.8570327796048507</v>
+      </c>
+      <c r="J9">
+        <v>0.8570327796048506</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4991103333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.497331</v>
+      </c>
+      <c r="O9">
+        <v>0.4515709052372154</v>
+      </c>
+      <c r="P9">
+        <v>0.4515709052372153</v>
+      </c>
+      <c r="Q9">
+        <v>0.3865577921345556</v>
+      </c>
+      <c r="R9">
+        <v>3.479020129211</v>
+      </c>
+      <c r="S9">
+        <v>0.3870110681041293</v>
+      </c>
+      <c r="T9">
+        <v>0.3870110681041292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02677666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.08033</v>
+      </c>
+      <c r="I10">
+        <v>0.02963030176948193</v>
+      </c>
+      <c r="J10">
+        <v>0.02963030176948193</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.061306</v>
+      </c>
+      <c r="N10">
+        <v>0.183918</v>
+      </c>
+      <c r="O10">
+        <v>0.05546670559109387</v>
+      </c>
+      <c r="P10">
+        <v>0.05546670559109387</v>
+      </c>
+      <c r="Q10">
+        <v>0.001641570326666667</v>
+      </c>
+      <c r="R10">
+        <v>0.01477413294</v>
+      </c>
+      <c r="S10">
+        <v>0.001643495224823122</v>
+      </c>
+      <c r="T10">
+        <v>0.001643495224823122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02677666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.08033</v>
+      </c>
+      <c r="I11">
+        <v>0.02963030176948193</v>
+      </c>
+      <c r="J11">
+        <v>0.02963030176948193</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5397903333333334</v>
+      </c>
+      <c r="N11">
+        <v>1.619371</v>
+      </c>
+      <c r="O11">
+        <v>0.488376202980433</v>
+      </c>
+      <c r="P11">
+        <v>0.4883762029804329</v>
+      </c>
+      <c r="Q11">
+        <v>0.01445378582555556</v>
+      </c>
+      <c r="R11">
+        <v>0.13008407243</v>
+      </c>
+      <c r="S11">
+        <v>0.01447073427134399</v>
+      </c>
+      <c r="T11">
+        <v>0.01447073427134399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02677666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.08033</v>
+      </c>
+      <c r="I12">
+        <v>0.02963030176948193</v>
+      </c>
+      <c r="J12">
+        <v>0.02963030176948193</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.005069</v>
+      </c>
+      <c r="N12">
+        <v>0.015207</v>
+      </c>
+      <c r="O12">
+        <v>0.004586186191257867</v>
+      </c>
+      <c r="P12">
+        <v>0.004586186191257867</v>
+      </c>
+      <c r="Q12">
+        <v>0.0001357309233333333</v>
+      </c>
+      <c r="R12">
+        <v>0.00122157831</v>
+      </c>
+      <c r="S12">
+        <v>0.0001358900808180016</v>
+      </c>
+      <c r="T12">
+        <v>0.0001358900808180016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.008392666666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.025178</v>
-      </c>
-      <c r="I9">
-        <v>0.01072015988698231</v>
-      </c>
-      <c r="J9">
-        <v>0.01072015988698232</v>
-      </c>
-      <c r="K9">
+      <c r="G13">
+        <v>0.02677666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.08033</v>
+      </c>
+      <c r="I13">
+        <v>0.02963030176948193</v>
+      </c>
+      <c r="J13">
+        <v>0.02963030176948193</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4991103333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.497331</v>
+      </c>
+      <c r="O13">
+        <v>0.4515709052372154</v>
+      </c>
+      <c r="P13">
+        <v>0.4515709052372153</v>
+      </c>
+      <c r="Q13">
+        <v>0.01336451102555555</v>
+      </c>
+      <c r="R13">
+        <v>0.12028059923</v>
+      </c>
+      <c r="S13">
+        <v>0.01338018219249682</v>
+      </c>
+      <c r="T13">
+        <v>0.01338018219249682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="F14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M9">
-        <v>0.1008886666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.302666</v>
-      </c>
-      <c r="O9">
-        <v>0.2135372571596283</v>
-      </c>
-      <c r="P9">
-        <v>0.2135372571596284</v>
-      </c>
-      <c r="Q9">
-        <v>0.0008467249497777778</v>
-      </c>
-      <c r="R9">
-        <v>0.007620524548</v>
-      </c>
-      <c r="S9">
-        <v>0.002289153538578875</v>
-      </c>
-      <c r="T9">
-        <v>0.002289153538578875</v>
+      <c r="G14">
+        <v>0.01719333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.05158</v>
+      </c>
+      <c r="I14">
+        <v>0.0190256562339086</v>
+      </c>
+      <c r="J14">
+        <v>0.0190256562339086</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.061306</v>
+      </c>
+      <c r="N14">
+        <v>0.183918</v>
+      </c>
+      <c r="O14">
+        <v>0.05546670559109387</v>
+      </c>
+      <c r="P14">
+        <v>0.05546670559109387</v>
+      </c>
+      <c r="Q14">
+        <v>0.001054054493333333</v>
+      </c>
+      <c r="R14">
+        <v>0.00948649044</v>
+      </c>
+      <c r="S14">
+        <v>0.001055290473003568</v>
+      </c>
+      <c r="T14">
+        <v>0.001055290473003568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.01719333333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.05158</v>
+      </c>
+      <c r="I15">
+        <v>0.0190256562339086</v>
+      </c>
+      <c r="J15">
+        <v>0.0190256562339086</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5397903333333334</v>
+      </c>
+      <c r="N15">
+        <v>1.619371</v>
+      </c>
+      <c r="O15">
+        <v>0.488376202980433</v>
+      </c>
+      <c r="P15">
+        <v>0.4883762029804329</v>
+      </c>
+      <c r="Q15">
+        <v>0.009280795131111113</v>
+      </c>
+      <c r="R15">
+        <v>0.08352715618000001</v>
+      </c>
+      <c r="S15">
+        <v>0.009291677750727289</v>
+      </c>
+      <c r="T15">
+        <v>0.009291677750727288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.01719333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.05158</v>
+      </c>
+      <c r="I16">
+        <v>0.0190256562339086</v>
+      </c>
+      <c r="J16">
+        <v>0.0190256562339086</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.005069</v>
+      </c>
+      <c r="N16">
+        <v>0.015207</v>
+      </c>
+      <c r="O16">
+        <v>0.004586186191257867</v>
+      </c>
+      <c r="P16">
+        <v>0.004586186191257867</v>
+      </c>
+      <c r="Q16">
+        <v>8.715300666666667E-05</v>
+      </c>
+      <c r="R16">
+        <v>0.00078437706</v>
+      </c>
+      <c r="S16">
+        <v>8.72552018995708E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.72552018995708E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.01719333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.05158</v>
+      </c>
+      <c r="I17">
+        <v>0.0190256562339086</v>
+      </c>
+      <c r="J17">
+        <v>0.0190256562339086</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4991103333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.497331</v>
+      </c>
+      <c r="O17">
+        <v>0.4515709052372154</v>
+      </c>
+      <c r="P17">
+        <v>0.4515709052372153</v>
+      </c>
+      <c r="Q17">
+        <v>0.008581370331111112</v>
+      </c>
+      <c r="R17">
+        <v>0.07723233298</v>
+      </c>
+      <c r="S17">
+        <v>0.008591432808278178</v>
+      </c>
+      <c r="T17">
+        <v>0.008591432808278177</v>
       </c>
     </row>
   </sheetData>
